--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>nome</t>
   </si>
@@ -34,38 +34,27 @@
     <t>logo_unisepe.png</t>
   </si>
   <si>
-    <t>Ola rafael</t>
+    <t>Ola fulano</t>
   </si>
   <si>
     <t>faculdade</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>ola vestibular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -109,16 +98,16 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -432,7 +421,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -483,62 +472,8 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
